--- a/Thesis Document/Media/Thesis Diagrams (Drawn).xlsx
+++ b/Thesis Document/Media/Thesis Diagrams (Drawn).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CP/Desktop/Engineering/Projects/Thesis/Scalable_RL_Kullback_Leibler_Policy_Chain/Thesis Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CP/Desktop/Engineering/Projects/Thesis/Scalable_RL_Kullback_Leibler_Policy_Chain/Thesis Document/Media/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GridWorld Diagrams" sheetId="1" r:id="rId1"/>
@@ -3919,7 +3919,7 @@
   <dimension ref="E2:AC14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.6640625" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
